--- a/viop_bom.xlsx
+++ b/viop_bom.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SALAMANDER\Documents\Zalo Received Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SALAMANDER\Documents\GitHub\GPS2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DD9216-6632-4C1D-AE5B-8AF8CAF8E5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20DD864-5225-4953-AEF5-706744354325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="306">
   <si>
     <t>STT</t>
   </si>
@@ -641,30 +641,18 @@
     <t>R13, R17, R25, R29</t>
   </si>
   <si>
-    <t>ERJ-2GEJ183X</t>
-  </si>
-  <si>
     <t>RES SMD 18K OHM 5% 1/10W 0603</t>
   </si>
   <si>
     <t>R14, R18, R26, R30</t>
   </si>
   <si>
-    <t>ERJ-2RKF2201X</t>
-  </si>
-  <si>
     <t>RES SMD 2.2K OHM 1% 1/10W 0603</t>
   </si>
   <si>
     <t>R15</t>
   </si>
   <si>
-    <t>4.99K</t>
-  </si>
-  <si>
-    <t>4.99K ohm, 5%, 1/16W, 0603</t>
-  </si>
-  <si>
     <t>R19</t>
   </si>
   <si>
@@ -677,72 +665,45 @@
     <t>R20, R32</t>
   </si>
   <si>
-    <t>ERA-3AEB6651V</t>
-  </si>
-  <si>
-    <t>RES SMD 6.65K OHM 0.1% 1/10W</t>
-  </si>
-  <si>
     <t>R27</t>
   </si>
   <si>
-    <t>ERA-3AEB153V</t>
-  </si>
-  <si>
     <t>RES SMD 15K OHM 0.1% 1/10W 0603</t>
   </si>
   <si>
     <t>R31</t>
   </si>
   <si>
-    <t>ERJ-2GEJ102X</t>
-  </si>
-  <si>
     <t>RES SMD 1K OHM 5% 1/10W 0603</t>
   </si>
   <si>
     <t>R35, R36</t>
   </si>
   <si>
-    <t>ERA-3AEB103V</t>
-  </si>
-  <si>
     <t>RES SMD 10K OHM 0.1% 1/10W 0603</t>
   </si>
   <si>
     <t>R37</t>
   </si>
   <si>
-    <t>ERJ-3GEYJ105V</t>
-  </si>
-  <si>
     <t>RES SMD 1M OHM 5% 1/10W 0603</t>
   </si>
   <si>
     <t>R38, RG1</t>
   </si>
   <si>
-    <t>ERJ-3GEYJ330V</t>
-  </si>
-  <si>
     <t>RES SMD 33 OHM 5% 1/10W 0603</t>
   </si>
   <si>
     <t>R39, R40</t>
   </si>
   <si>
-    <t>0R</t>
-  </si>
-  <si>
     <t>RES 0.0 OHM 1/10W 0603 SMD</t>
   </si>
   <si>
     <t>R41, R47, R48, R49, R52, R53, R56</t>
   </si>
   <si>
-    <t>ERJ-3EKF49R9V</t>
-  </si>
-  <si>
     <t>RES SMD 49.9 OHM 1% 1/10W 0603</t>
   </si>
   <si>
@@ -752,15 +713,9 @@
     <t>ERJ-3EKF1242V</t>
   </si>
   <si>
-    <t>RES 12K4 OHM 1/16W 1% 0603 SMD</t>
-  </si>
-  <si>
     <t>R54, R57, R58</t>
   </si>
   <si>
-    <t>1K-0402</t>
-  </si>
-  <si>
     <t>RES SMD 1K OHM 0.1% 1/10W 0402</t>
   </si>
   <si>
@@ -815,24 +770,12 @@
     <t>1K</t>
   </si>
   <si>
-    <t>RES 1K OHM 1/16W 5% 0603 SMD</t>
-  </si>
-  <si>
     <t>R70, R71, R72, R74, R81, R82</t>
   </si>
   <si>
-    <t>RES 40.2 OHM 1/16W 5% 0402 SMD</t>
-  </si>
-  <si>
     <t>R73</t>
   </si>
   <si>
-    <t>22R</t>
-  </si>
-  <si>
-    <t>RES 22 OHM JUMPER 1/10W 0603 SMD</t>
-  </si>
-  <si>
     <t>R75</t>
   </si>
   <si>
@@ -869,9 +812,6 @@
     <t>Y1</t>
   </si>
   <si>
-    <t>32.768KHz</t>
-  </si>
-  <si>
     <t>MEMS OSC XO 32.7680MHZ LVCMOS</t>
   </si>
   <si>
@@ -957,6 +897,75 @@
   </si>
   <si>
     <t>SR1-0603-247</t>
+  </si>
+  <si>
+    <t>RES 10K OHM 1/16W 5% 0402 SMD</t>
+  </si>
+  <si>
+    <t>RC0603JR-0718KL</t>
+  </si>
+  <si>
+    <t>RC0603FR-072K2L</t>
+  </si>
+  <si>
+    <t>CPF0603F4K99C1</t>
+  </si>
+  <si>
+    <t>4.99K ohm, 1%, 1/16W, 0603</t>
+  </si>
+  <si>
+    <t>RT0603BRD076K65L</t>
+  </si>
+  <si>
+    <t>RES SMD 6.65KOHM 0.1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>RT0603BRD0715KL</t>
+  </si>
+  <si>
+    <t>RT0603BRD1010KL</t>
+  </si>
+  <si>
+    <t>RC0603JR-101KL</t>
+  </si>
+  <si>
+    <t>RMCF0603JG1M00</t>
+  </si>
+  <si>
+    <t>RC0603JR-0733RL</t>
+  </si>
+  <si>
+    <t>RC0603FR-070RL</t>
+  </si>
+  <si>
+    <t>RC0603FR-0749R9L</t>
+  </si>
+  <si>
+    <t>RES 12K4 OHM 1/10W 1% 0603 SMD</t>
+  </si>
+  <si>
+    <t>ERA-2VEB1001X</t>
+  </si>
+  <si>
+    <t>ERJ-U020R00X</t>
+  </si>
+  <si>
+    <t>RES SMD 1K OHM 1% 1/16W 0603</t>
+  </si>
+  <si>
+    <t>RT0402FRE0740R2L</t>
+  </si>
+  <si>
+    <t>RES SMD 40.2 OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>RES 22 OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>RC0603FR-0722RL</t>
+  </si>
+  <si>
+    <t>SIT1533AI-H4-DCC-32.768S</t>
   </si>
 </sst>
 </file>
@@ -1098,9 +1107,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1128,6 +1134,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1468,25 +1477,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="68.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="A1" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1504,24 +1513,24 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>277</v>
+      <c r="F2" s="13" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1538,10 +1547,10 @@
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="13">
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12">
         <v>4.32</v>
       </c>
     </row>
@@ -1558,10 +1567,10 @@
       <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>2</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>0.85</v>
       </c>
     </row>
@@ -1578,10 +1587,10 @@
       <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="15">
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14">
         <v>0.89</v>
       </c>
     </row>
@@ -1598,10 +1607,10 @@
       <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="15">
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14">
         <v>7.47</v>
       </c>
     </row>
@@ -1618,10 +1627,10 @@
       <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="15">
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14">
         <v>0.32</v>
       </c>
     </row>
@@ -1630,7 +1639,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>23</v>
@@ -1638,10 +1647,10 @@
       <c r="D9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12">
         <v>1.8</v>
       </c>
     </row>
@@ -1650,7 +1659,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>25</v>
@@ -1658,10 +1667,10 @@
       <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="7">
-        <v>1</v>
-      </c>
-      <c r="F10" s="13">
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12">
         <v>1.43</v>
       </c>
     </row>
@@ -1678,10 +1687,10 @@
       <c r="D11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="13">
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12">
         <v>1.74</v>
       </c>
     </row>
@@ -1690,7 +1699,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>30</v>
@@ -1698,10 +1707,10 @@
       <c r="D12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="F12" s="13">
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12">
         <v>9.6199999999999992</v>
       </c>
     </row>
@@ -1718,10 +1727,10 @@
       <c r="D13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="15">
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14">
         <v>13.17</v>
       </c>
     </row>
@@ -1738,11 +1747,11 @@
       <c r="D14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1758,14 +1767,14 @@
       <c r="D15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="13">
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12">
         <v>17500</v>
       </c>
-      <c r="G15" s="16" t="s">
-        <v>284</v>
+      <c r="G15" s="15" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1781,10 +1790,10 @@
       <c r="D16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>4</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="14">
         <v>1.62</v>
       </c>
     </row>
@@ -1801,10 +1810,10 @@
       <c r="D17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>2</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <v>0.12</v>
       </c>
     </row>
@@ -1821,10 +1830,10 @@
       <c r="D18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>4</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <v>1.07</v>
       </c>
     </row>
@@ -1841,10 +1850,10 @@
       <c r="D19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>2</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <v>0.11</v>
       </c>
     </row>
@@ -1853,7 +1862,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>53</v>
@@ -1861,10 +1870,10 @@
       <c r="D20" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>16</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <v>0.2</v>
       </c>
     </row>
@@ -1872,8 +1881,8 @@
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>283</v>
+      <c r="B21" s="14" t="s">
+        <v>263</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>55</v>
@@ -1881,10 +1890,10 @@
       <c r="D21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="7">
-        <v>1</v>
-      </c>
-      <c r="F21" s="13">
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12">
         <v>0.1</v>
       </c>
     </row>
@@ -1901,10 +1910,10 @@
       <c r="D22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="7">
-        <v>1</v>
-      </c>
-      <c r="F22" s="15">
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="14">
         <v>0.51</v>
       </c>
     </row>
@@ -1921,7 +1930,7 @@
       <c r="D23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>5</v>
       </c>
     </row>
@@ -1938,10 +1947,10 @@
       <c r="D24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="7">
-        <v>1</v>
-      </c>
-      <c r="F24" s="13">
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12">
         <v>0.34</v>
       </c>
     </row>
@@ -1958,10 +1967,10 @@
       <c r="D25" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="7">
-        <v>1</v>
-      </c>
-      <c r="F25" s="13">
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="12">
         <v>0.26</v>
       </c>
     </row>
@@ -1978,10 +1987,10 @@
       <c r="D26" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <v>2</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="12">
         <v>4.3499999999999996</v>
       </c>
     </row>
@@ -1998,10 +2007,10 @@
       <c r="D27" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <v>4</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="12">
         <v>0.27</v>
       </c>
     </row>
@@ -2018,10 +2027,10 @@
       <c r="D28" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <v>8</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="12">
         <v>1.45</v>
       </c>
     </row>
@@ -2038,10 +2047,10 @@
       <c r="D29" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <v>4</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="12">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -2058,10 +2067,10 @@
       <c r="D30" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="6">
         <v>4</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="12">
         <v>0.2</v>
       </c>
     </row>
@@ -2078,10 +2087,10 @@
       <c r="D31" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <v>4</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="12">
         <v>0.1</v>
       </c>
     </row>
@@ -2093,15 +2102,15 @@
         <v>87</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <v>10</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="12">
         <v>0.77</v>
       </c>
     </row>
@@ -2118,10 +2127,10 @@
       <c r="D33" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="6">
         <v>3</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="12">
         <v>0.21</v>
       </c>
     </row>
@@ -2138,10 +2147,10 @@
       <c r="D34" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="7">
-        <v>1</v>
-      </c>
-      <c r="F34" s="15">
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+      <c r="F34" s="14">
         <v>0.42</v>
       </c>
     </row>
@@ -2150,7 +2159,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>95</v>
@@ -2158,10 +2167,10 @@
       <c r="D35" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="7">
-        <v>1</v>
-      </c>
-      <c r="F35" s="13">
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+      <c r="F35" s="12">
         <v>0.81</v>
       </c>
     </row>
@@ -2170,7 +2179,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>97</v>
@@ -2178,10 +2187,10 @@
       <c r="D36" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="6">
         <v>4</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="12">
         <v>0.18</v>
       </c>
     </row>
@@ -2190,7 +2199,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>99</v>
@@ -2198,10 +2207,10 @@
       <c r="D37" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E37" s="7">
-        <v>1</v>
-      </c>
-      <c r="F37" s="13">
+      <c r="E37" s="6">
+        <v>1</v>
+      </c>
+      <c r="F37" s="12">
         <v>0.1</v>
       </c>
     </row>
@@ -2210,7 +2219,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>101</v>
@@ -2218,10 +2227,10 @@
       <c r="D38" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="6">
         <v>5</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="12">
         <v>0.26</v>
       </c>
     </row>
@@ -2229,8 +2238,8 @@
       <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="15" t="s">
-        <v>290</v>
+      <c r="B39" s="14" t="s">
+        <v>270</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>103</v>
@@ -2238,10 +2247,10 @@
       <c r="D39" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="6">
         <v>3</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="12">
         <v>0.1</v>
       </c>
     </row>
@@ -2249,8 +2258,8 @@
       <c r="A40" s="2">
         <v>38</v>
       </c>
-      <c r="B40" s="15" t="s">
-        <v>291</v>
+      <c r="B40" s="14" t="s">
+        <v>271</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>105</v>
@@ -2258,10 +2267,10 @@
       <c r="D40" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="6">
         <v>12</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="12">
         <v>0.1</v>
       </c>
     </row>
@@ -2270,18 +2279,18 @@
         <v>39</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="6">
         <v>9</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="12">
         <v>0.13</v>
       </c>
     </row>
@@ -2298,7 +2307,7 @@
       <c r="D42" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2307,18 +2316,18 @@
         <v>41</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="6">
         <v>3</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="12">
         <v>0.45</v>
       </c>
     </row>
@@ -2335,10 +2344,10 @@
       <c r="D44" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E44" s="7">
-        <v>1</v>
-      </c>
-      <c r="F44" s="13">
+      <c r="E44" s="6">
+        <v>1</v>
+      </c>
+      <c r="F44" s="12">
         <v>4.3499999999999996</v>
       </c>
     </row>
@@ -2347,7 +2356,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>113</v>
@@ -2355,10 +2364,10 @@
       <c r="D45" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E45" s="7">
-        <v>1</v>
-      </c>
-      <c r="F45" s="13">
+      <c r="E45" s="6">
+        <v>1</v>
+      </c>
+      <c r="F45" s="12">
         <v>0.8</v>
       </c>
     </row>
@@ -2375,7 +2384,7 @@
       <c r="D46" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2392,10 +2401,10 @@
       <c r="D47" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E47" s="7">
-        <v>1</v>
-      </c>
-      <c r="F47" s="13">
+      <c r="E47" s="6">
+        <v>1</v>
+      </c>
+      <c r="F47" s="12">
         <v>0.41</v>
       </c>
     </row>
@@ -2412,10 +2421,10 @@
       <c r="D48" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E48" s="7">
-        <v>1</v>
-      </c>
-      <c r="F48" s="13">
+      <c r="E48" s="6">
+        <v>1</v>
+      </c>
+      <c r="F48" s="12">
         <v>0.52</v>
       </c>
     </row>
@@ -2432,7 +2441,7 @@
       <c r="D49" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2449,10 +2458,10 @@
       <c r="D50" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="6">
         <v>6</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F50" s="12">
         <v>0.81</v>
       </c>
     </row>
@@ -2469,10 +2478,10 @@
       <c r="D51" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E51" s="7">
-        <v>1</v>
-      </c>
-      <c r="F51" s="13">
+      <c r="E51" s="6">
+        <v>1</v>
+      </c>
+      <c r="F51" s="12">
         <v>0.97</v>
       </c>
     </row>
@@ -2489,10 +2498,10 @@
       <c r="D52" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="6">
         <v>2</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F52" s="12">
         <v>0.74</v>
       </c>
     </row>
@@ -2507,7 +2516,7 @@
       <c r="D53" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="6">
         <v>6</v>
       </c>
     </row>
@@ -2515,8 +2524,8 @@
       <c r="A54" s="2">
         <v>52</v>
       </c>
-      <c r="B54" s="15" t="s">
-        <v>297</v>
+      <c r="B54" s="14" t="s">
+        <v>277</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>136</v>
@@ -2524,10 +2533,10 @@
       <c r="D54" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="6">
         <v>3</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F54" s="12">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -2544,7 +2553,7 @@
       <c r="D55" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2561,7 +2570,7 @@
       <c r="D56" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2578,10 +2587,10 @@
       <c r="D57" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E57" s="7">
-        <v>1</v>
-      </c>
-      <c r="F57" s="13">
+      <c r="E57" s="6">
+        <v>1</v>
+      </c>
+      <c r="F57" s="12">
         <v>15.48</v>
       </c>
     </row>
@@ -2590,7 +2599,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>146</v>
@@ -2598,7 +2607,7 @@
       <c r="D58" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="6">
         <v>2</v>
       </c>
       <c r="F58">
@@ -2618,7 +2627,7 @@
       <c r="D59" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="6">
         <v>1</v>
       </c>
       <c r="F59">
@@ -2638,7 +2647,7 @@
       <c r="D60" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="6">
         <v>2</v>
       </c>
       <c r="F60">
@@ -2658,7 +2667,7 @@
       <c r="D61" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="6">
         <v>2</v>
       </c>
       <c r="F61">
@@ -2678,7 +2687,7 @@
       <c r="D62" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="6">
         <v>1</v>
       </c>
       <c r="F62">
@@ -2692,13 +2701,13 @@
       <c r="B63" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C63" s="17" t="s">
-        <v>299</v>
+      <c r="C63" s="16" t="s">
+        <v>279</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="6">
         <v>1</v>
       </c>
       <c r="F63">
@@ -2712,13 +2721,13 @@
       <c r="B64" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C64" s="17" t="s">
-        <v>300</v>
+      <c r="C64" s="16" t="s">
+        <v>280</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="6">
         <v>1</v>
       </c>
       <c r="F64">
@@ -2730,7 +2739,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>164</v>
@@ -2738,7 +2747,7 @@
       <c r="D65" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="6">
         <v>1</v>
       </c>
       <c r="F65">
@@ -2758,10 +2767,10 @@
       <c r="D66" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="6">
         <v>2</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F66" s="12">
         <v>0.46</v>
       </c>
     </row>
@@ -2778,7 +2787,7 @@
       <c r="D67" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="6">
         <v>3</v>
       </c>
       <c r="F67">
@@ -2790,7 +2799,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>172</v>
@@ -2798,8 +2807,11 @@
       <c r="D68" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E68" s="7">
-        <v>1</v>
+      <c r="E68" s="6">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>0.1</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2815,8 +2827,11 @@
       <c r="D69" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69" s="6">
         <v>3</v>
+      </c>
+      <c r="F69">
+        <v>0.47</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2832,8 +2847,11 @@
       <c r="D70" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="6">
         <v>2</v>
+      </c>
+      <c r="F70">
+        <v>0.1</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2849,8 +2867,11 @@
       <c r="D71" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="6">
         <v>2</v>
+      </c>
+      <c r="F71">
+        <v>0.1</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2861,13 +2882,16 @@
         <v>183</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>184</v>
+        <v>283</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="6">
         <v>10</v>
+      </c>
+      <c r="F72">
+        <v>0.1</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2883,8 +2907,11 @@
       <c r="D73" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E73" s="7">
-        <v>1</v>
+      <c r="E73" s="6">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>0.1</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2900,8 +2927,11 @@
       <c r="D74" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E74" s="7">
-        <v>1</v>
+      <c r="E74" s="6">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0.1</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2917,8 +2947,11 @@
       <c r="D75" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75" s="6">
         <v>2</v>
+      </c>
+      <c r="F75">
+        <v>0.1</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2934,8 +2967,11 @@
       <c r="D76" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E76" s="6">
         <v>4</v>
+      </c>
+      <c r="F76">
+        <v>0.1</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2943,16 +2979,19 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="D77" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E77" s="7">
+      <c r="E77" s="6">
         <v>4</v>
+      </c>
+      <c r="F77">
+        <v>0.1</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2960,16 +2999,19 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E78" s="7">
-        <v>1</v>
+      <c r="E78" s="6">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>0.1</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2977,16 +3019,19 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>203</v>
+        <v>286</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>204</v>
+        <v>287</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E79" s="7">
-        <v>1</v>
+        <v>201</v>
+      </c>
+      <c r="E79" s="6">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>0.19</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2994,424 +3039,481 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E80" s="7">
+        <v>204</v>
+      </c>
+      <c r="E80" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>209</v>
+        <v>288</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>210</v>
+        <v>289</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E81" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="E81" s="6">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E82" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="E82" s="6">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>81</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>215</v>
+        <v>292</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E83" s="7">
+        <v>209</v>
+      </c>
+      <c r="E83" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>82</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>218</v>
+        <v>291</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E84" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="E84" s="6">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>83</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>221</v>
+        <v>293</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E85" s="7">
+        <v>213</v>
+      </c>
+      <c r="E85" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>84</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>224</v>
+        <v>294</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E86" s="7">
+        <v>215</v>
+      </c>
+      <c r="E86" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>85</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>227</v>
+        <v>295</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E87" s="7">
+        <v>217</v>
+      </c>
+      <c r="E87" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>86</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>230</v>
+        <v>296</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E88" s="7">
+        <v>219</v>
+      </c>
+      <c r="E88" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>87</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>234</v>
+        <v>297</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E89" s="7">
+        <v>221</v>
+      </c>
+      <c r="E89" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>88</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>236</v>
+        <v>298</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E90" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="E90" s="6">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>89</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E91" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="E91" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>90</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E92" s="7">
+        <v>229</v>
+      </c>
+      <c r="E92" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>91</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E93" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="E93" s="6">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>92</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>138</v>
+        <v>299</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E94" s="7">
+        <v>234</v>
+      </c>
+      <c r="E94" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>93</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>139</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E95" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="E95" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>94</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>139</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E96" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="E96" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>95</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E97" s="7">
+        <v>240</v>
+      </c>
+      <c r="E97" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>96</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E98" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="E98" s="6">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>97</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>259</v>
+        <v>304</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>260</v>
+        <v>303</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E99" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="E99" s="6">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>98</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>139</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E100" s="7">
+        <v>244</v>
+      </c>
+      <c r="E100" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>99</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E101" s="7">
+        <v>247</v>
+      </c>
+      <c r="E101" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>100</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E102" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="E102" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>101</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E103" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="E103" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>102</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E104" s="7">
-        <v>1</v>
+        <v>255</v>
+      </c>
+      <c r="E104" s="6">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
